--- a/testData/SauceDemoWebApp.xlsx
+++ b/testData/SauceDemoWebApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_Seleniun_Workspace\Practice_Workspace\SauceDemoWebApp\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F24D111-C090-4FC5-85E2-53ECE7821BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF4918-1556-4010-94CB-5499D5E34117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Project Name</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Test Result</t>
   </si>
   <si>
-    <t>TC_SD_001</t>
-  </si>
-  <si>
     <t>TC_SD_002</t>
   </si>
   <si>
@@ -91,22 +88,10 @@
     <t>TC_SD_006</t>
   </si>
   <si>
-    <t>TC_SD_007</t>
-  </si>
-  <si>
-    <t>TC_SD_008</t>
-  </si>
-  <si>
-    <t>TC_SD_009</t>
-  </si>
-  <si>
     <t>Verify the functionality of login with valid creds.</t>
   </si>
   <si>
     <t>Verify the functionality of login with invalid creds.</t>
-  </si>
-  <si>
-    <t>Verigy the login feature using valid id and invalid password.</t>
   </si>
   <si>
     <t>Verify the login feature using invalid id and valid password</t>
@@ -205,13 +190,59 @@
   </si>
   <si>
     <t>inalid</t>
+  </si>
+  <si>
+    <t>same as expected.</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TC_SD_001a</t>
+  </si>
+  <si>
+    <t>TC_SD_001b</t>
+  </si>
+  <si>
+    <t>TC_SD_001c</t>
+  </si>
+  <si>
+    <t>TC_SD_001d</t>
+  </si>
+  <si>
+    <t>Verify the login feature using valid id and invalid password.</t>
+  </si>
+  <si>
+    <t>Verify the working of the purchase functionaly of the WebApp.
+And also verify that the price tag is correct in cart during purchase as shown on homePage of the application.</t>
+  </si>
+  <si>
+    <t>1- Open browser.
+2- Enter app url.
+3- Enter valid id and invalid password.
+4- Click on the login button.
+5- Choose any product and add it to the cart.
+6- Click on the cart button present on the top right of the web page.
+7- Click on the Checkout button.
+8- Enter valid creds in the form for shipping.
+9- Then click on Continue.
+10 - Click on Finish.</t>
+  </si>
+  <si>
+    <t>1- After entering the url user should successfully directed to the login page.
+2- After entering the id and password user should directed to the homePage of the webApp.
+3 - Price tag in cart should equal to the price tag in homePage
+4- User should successfully purchase the item.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +264,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -299,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -325,6 +369,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,99 +744,137 @@
     </row>
     <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -795,7 +886,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -807,7 +898,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -818,8 +909,8 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
+      <c r="A15" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -839,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB886E6-07C5-46CF-B092-0D1B7778B070}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -851,63 +942,63 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2"/>
     </row>
